--- a/document/logs/BoomSKY_log.xlsx
+++ b/document/logs/BoomSKY_log.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Boom_SKY 项 目 日 报</t>
   </si>
@@ -35,18 +35,27 @@
   <si>
     <t>备注</t>
   </si>
+  <si>
+    <t>刘谱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用户登陆接口文档已完成,
+用户登陆接口测试正在进行测试中。
+订单管理系统：订单查询接口正在开发中。
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,12 +83,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,6 +126,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -110,6 +143,53 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,29 +209,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -160,63 +217,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,7 +233,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,7 +245,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,6 +281,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -273,19 +353,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,37 +383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,13 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,49 +407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,6 +424,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -443,82 +519,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,152 +529,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -687,6 +689,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1048,7 +1056,7 @@
   <dimension ref="A1:F375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A9"/>
+      <selection activeCell="E4" sqref="E4:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1098,9 +1106,15 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
+        <v>43755</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -4348,11 +4362,11 @@
     <mergeCell ref="C298:D300"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576">
+      <formula1>"王志文"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A1048576">
       <formula1>"冯泽林,李莹莹,刘兴博,王志文,刘谱"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576">
-      <formula1>"王志文"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
